--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29121.07922295708</v>
+        <v>5795094.765368455</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29121.07922295708</v>
+        <v>5795094.765368455</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29206.03703487899</v>
+        <v>1981844.155312344</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29206.03703487899</v>
+        <v>1981844.155312344</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418554545.839327</v>
+        <v>55975672.96916533</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11472.69959027077</v>
+        <v>1240763.617355996</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22461.87843554015</v>
+        <v>2405687.379663645</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33451.05728080952</v>
+        <v>3570611.141971296</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46849.13039262581</v>
+        <v>4705068.739632139</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60048.59017110871</v>
+        <v>5800002.283959649</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73248.04994959162</v>
+        <v>6894935.828287154</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>87028.04778509295</v>
+        <v>8010407.5189874</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100704.8388549021</v>
+        <v>9105341.063314904</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>114207.3464131475</v>
+        <v>10194108.84429997</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>127740.837706782</v>
+        <v>11289042.38862747</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140933.0702475946</v>
+        <v>12398817.08504324</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>152265.5799404488</v>
+        <v>13511242.97359914</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>163796.7029666364</v>
+        <v>14663192.91548837</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>175480.6448741575</v>
+        <v>15793589.50522548</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>187051.8050235812</v>
+        <v>16810236.34896521</v>
       </c>
     </row>
   </sheetData>
